--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_汇总.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository\Mogo_Doc\VersionRecords\Version3.0.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="178">
   <si>
     <t>No</t>
   </si>
@@ -250,6 +250,221 @@
     <t>发现组</t>
   </si>
   <si>
+    <t>房东App集中式公寓首次查看没有加载默认大楼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈佳文</t>
+  </si>
+  <si>
+    <t>郑良杰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善定时器修正房源列表的默认排序的算法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新官网/租客APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷传盛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷传盛对底层进行了优化，目前压测测不出效果，需要前端同时优化，下个版本完善</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图缩放时未上线城市显示蘑菇图标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金宝统计报表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东提现失败回滚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东审核签约单，不同意拒绝时，关闭账单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC&amp;App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC登录在线验证功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC端业主详情菜单错位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS补录租约合同关闭下载</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC端密码输入错误和密码被锁定都会提登录错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同预览，乙方联系地址为空时，默认为签约房间地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC&amp;App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约单保存后，若没有跳转回列表，提示弹窗将自动消失，不会导致页面卡死</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>房东App分散式房间面积不能编辑</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -262,11 +477,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>房东App集中式公寓首次查看没有加载默认大楼</t>
+    <t>余星赞</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Fix Bug</t>
+    <t>Pass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -286,22 +505,47 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>陈佳文</t>
+    <t>李傲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BS关于集中式房源相关小区文案改大楼</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>New Features</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>BS</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>房东APP退房时，输入支付密码错误，无相关提示</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>郑良杰</t>
+    <t>邵明基</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -309,6 +553,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>蒋文</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -317,7 +565,68 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>完善定时器修正房源列表的默认排序的算法</t>
+    <t>发现组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS端前台不打日志</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚林</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行提现</t>
+  </si>
+  <si>
+    <t>房东app/租客app</t>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+  </si>
+  <si>
+    <t>架构组</t>
+  </si>
+  <si>
+    <t>纪维玉/周蓉</t>
+  </si>
+  <si>
+    <t>统一用户写并行</t>
+  </si>
+  <si>
+    <t>所有</t>
+  </si>
+  <si>
+    <t>田志敏</t>
+  </si>
+  <si>
+    <t>余星赞/周蓉</t>
+  </si>
+  <si>
+    <t>雷传盛对底层进行了优化，目前压测测不出效果，需要前端同时优化，下个版本完善</t>
+  </si>
+  <si>
+    <t>蘑菇宝常规款账单生成时、toAcctId为10000.</t>
+  </si>
+  <si>
+    <t>fix bug</t>
+  </si>
+  <si>
+    <t>房东</t>
+  </si>
+  <si>
+    <t>蒙先铭</t>
+  </si>
+  <si>
+    <t>纪维玉</t>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图找房速度的优化</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -333,11 +642,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>闪电组</t>
+    <t>BS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>吴永余</t>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -346,198 +663,6 @@
   </si>
   <si>
     <t>能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图找房速度的优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷传盛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷传盛对底层进行了优化，目前压测测不出效果，需要前端同时优化，下个版本完善</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图缩放时未上线城市显示蘑菇图标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新官网/租客APP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>周蓉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租金宝统计报表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱文博</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李傲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东提现失败回滚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东App</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔斌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪维玉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东审核签约单，不同意拒绝时，关闭账单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC&amp;App</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>茅寰寰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>施超</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC登录在线验证功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC端业主详情菜单错位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>田东兴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>施超</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS补录租约合同关闭下载</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>茅寰寰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC端密码输入错误和密码被锁定都会提登录错误</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙周麟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同预览，乙方联系地址为空时，默认为签约房间地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC&amp;App</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约单保存后，若没有跳转回列表，提示弹窗将自动消失，不会导致页面卡死</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +670,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -644,6 +769,18 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -765,7 +902,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,8 +923,11 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,12 +966,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -923,13 +1057,47 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="10" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
     <cellStyle name="常规 3 12" xfId="5"/>
     <cellStyle name="常规 3 12 2" xfId="9"/>
+    <cellStyle name="常规 4" xfId="10"/>
     <cellStyle name="常规 6" xfId="2"/>
     <cellStyle name="常规 6 2" xfId="7"/>
     <cellStyle name="常规 9" xfId="4"/>
@@ -1280,29 +1448,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="44.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="19" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="19" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="20" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="19" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="23.875" style="19" customWidth="1"/>
-    <col min="11" max="12" width="11.875" style="19" customWidth="1"/>
-    <col min="13" max="13" width="9" style="20"/>
-    <col min="14" max="14" width="11.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="23" customWidth="1"/>
-    <col min="17" max="18" width="17.625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="48.5" style="20" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="44.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="17" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="18" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="17" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="23.875" style="17" customWidth="1"/>
+    <col min="11" max="12" width="11.875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="9" style="18"/>
+    <col min="14" max="14" width="11.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="21" customWidth="1"/>
+    <col min="17" max="18" width="17.625" style="21" customWidth="1"/>
+    <col min="19" max="19" width="48.5" style="18" customWidth="1"/>
     <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
@@ -1367,1891 +1535,2043 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="35">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="31">
+        <v>42450</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="31">
+        <v>42450</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="32"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="16"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="33">
+      <c r="E3" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="31">
         <v>42450</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="33">
+      <c r="G3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="31">
         <v>42450</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="10"/>
-    </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="35">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="33">
+      <c r="I3" s="30"/>
+      <c r="J3" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" s="16"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="31">
         <v>42450</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H4" s="31">
         <v>42450</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="10"/>
-    </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="35">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="33">
-        <v>42450</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="33">
-        <v>42450</v>
-      </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="N4" s="33">
+      <c r="I4" s="30"/>
+      <c r="J4" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="31">
         <v>42451</v>
       </c>
-      <c r="O4" s="34" t="s">
-        <v>94</v>
+      <c r="O4" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="S4" s="18"/>
+      <c r="R4" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="S4" s="16"/>
       <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="35">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="33">
+        <v>105</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="31">
         <v>42450</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="31">
         <v>42450</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="M5" s="34" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="31">
         <v>42451</v>
       </c>
-      <c r="O5" s="34" t="s">
-        <v>132</v>
+      <c r="O5" s="32" t="s">
+        <v>108</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="S5" s="18"/>
+      <c r="R5" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="S5" s="16"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="35">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="33">
+        <v>110</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="31">
         <v>42450</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="31">
         <v>42450</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="M6" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="N6" s="33">
+      <c r="I6" s="30"/>
+      <c r="J6" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="31">
         <v>42451</v>
       </c>
-      <c r="O6" s="34" t="s">
-        <v>132</v>
+      <c r="O6" s="32" t="s">
+        <v>108</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="S6" s="18"/>
+      <c r="R6" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="S6" s="16"/>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="35">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="33">
+        <v>114</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="31">
         <v>42450</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="31">
         <v>42450</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="N7" s="33">
+      <c r="I7" s="30"/>
+      <c r="J7" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="31">
         <v>42451</v>
       </c>
-      <c r="O7" s="34" t="s">
-        <v>94</v>
+      <c r="O7" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="S7" s="18"/>
+      <c r="R7" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7" s="16"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="35">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="33">
+        <v>116</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="31">
         <v>42450</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="31">
         <v>42450</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="M8" s="34" t="s">
+      <c r="I8" s="30"/>
+      <c r="J8" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="31">
         <v>42451</v>
       </c>
-      <c r="O8" s="34" t="s">
-        <v>94</v>
+      <c r="O8" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="S8" s="18"/>
+      <c r="R8" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="S8" s="16"/>
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A9" s="35">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="33">
+        <v>118</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="31">
         <v>42450</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="31">
         <v>42450</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="M9" s="34" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="31">
         <v>42451</v>
       </c>
-      <c r="O9" s="34" t="s">
-        <v>132</v>
+      <c r="O9" s="32" t="s">
+        <v>108</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="S9" s="18"/>
+      <c r="R9" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="S9" s="16"/>
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35">
+      <c r="A10" s="43">
+        <v>1</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="35">
+        <v>42451</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="35">
+        <v>42451</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="43">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="35">
+        <v>42451</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="35">
+        <v>42451</v>
+      </c>
+      <c r="I11" s="38"/>
+      <c r="J11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="43">
+        <v>3</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="35">
+        <v>42451</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="35">
+        <v>42451</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="43">
+        <v>4</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="35">
+        <v>42451</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="35">
+        <v>42451</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="43">
+        <v>5</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="35">
+        <v>42451</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="35">
+        <v>42451</v>
+      </c>
+      <c r="I14" s="38"/>
+      <c r="J14" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="43">
+        <v>6</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="35">
+        <v>42451</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="35">
+        <v>42451</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="38"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="43">
+        <v>7</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="35">
+        <v>42451</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="35">
+        <v>42451</v>
+      </c>
+      <c r="I16" s="38"/>
+      <c r="J16" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="43">
+        <v>8</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="35">
+        <v>42451</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="35">
+        <v>42451</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="38"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="43">
         <v>9</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="40" t="s">
+      <c r="B18" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="35">
+        <v>42451</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="35">
+        <v>42451</v>
+      </c>
+      <c r="I18" s="38"/>
+      <c r="J18" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A19" s="43">
+        <v>10</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D19" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E19" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F19" s="35">
         <v>42451</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G19" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H19" s="35">
         <v>42451</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="40" t="s">
+      <c r="I19" s="38"/>
+      <c r="J19" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="10"/>
-    </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35">
-        <v>10</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="40" t="s">
+      <c r="L19" s="38"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="10"/>
+    </row>
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="43">
+        <v>11</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F20" s="35">
         <v>42451</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G20" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H20" s="35">
         <v>42451</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="40" t="s">
+      <c r="I20" s="38"/>
+      <c r="J20" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35">
-        <v>11</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="37">
-        <v>42451</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="37">
-        <v>42451</v>
-      </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="35">
-        <v>12</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="37">
-        <v>42451</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="37">
-        <v>42451</v>
-      </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35">
-        <v>13</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="37">
-        <v>42451</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="37">
-        <v>42451</v>
-      </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="10"/>
-    </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35">
-        <v>14</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="37">
-        <v>42451</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="37">
-        <v>42451</v>
-      </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="10"/>
-    </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35">
-        <v>15</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="37">
-        <v>42451</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="37">
-        <v>42451</v>
-      </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="10"/>
-    </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35">
-        <v>16</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="37">
-        <v>42451</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="37">
-        <v>42451</v>
-      </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="10"/>
-    </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35">
-        <v>17</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="37">
-        <v>42451</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="37">
-        <v>42451</v>
-      </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="10"/>
-    </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A19" s="35">
-        <v>18</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="37">
-        <v>42451</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="37">
-        <v>42451</v>
-      </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="40"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="10"/>
-    </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35">
-        <v>19</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="37">
-        <v>42451</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="37">
-        <v>42451</v>
-      </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="40"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="36"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="42"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="40"/>
       <c r="T20" s="10"/>
     </row>
     <row r="21" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35">
-        <v>20</v>
-      </c>
-      <c r="B21" s="39" t="s">
+      <c r="A21" s="43">
+        <v>12</v>
+      </c>
+      <c r="B21" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="35">
         <v>42451</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="35">
         <v>42451</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="38" t="s">
+      <c r="I21" s="38"/>
+      <c r="J21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="40"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="36"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="42"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="40"/>
       <c r="T21" s="10"/>
     </row>
     <row r="22" spans="1:20" s="11" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35">
-        <v>21</v>
-      </c>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="43">
+        <v>13</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="35">
         <v>42451</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="35">
         <v>42451</v>
       </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="38" t="s">
+      <c r="I22" s="38"/>
+      <c r="J22" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="40"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="36"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="42"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="40"/>
       <c r="T22" s="10"/>
     </row>
     <row r="23" spans="1:20" s="11" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35">
-        <v>22</v>
-      </c>
-      <c r="B23" s="39" t="s">
+      <c r="A23" s="43">
+        <v>14</v>
+      </c>
+      <c r="B23" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="35">
         <v>42451</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="35">
         <v>42451</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="38" t="s">
+      <c r="I23" s="38"/>
+      <c r="J23" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="36"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="42"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="40"/>
       <c r="T23" s="10"/>
     </row>
     <row r="24" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A24" s="35">
-        <v>23</v>
-      </c>
-      <c r="B24" s="39" t="s">
+      <c r="A24" s="43">
+        <v>15</v>
+      </c>
+      <c r="B24" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="35">
         <v>42451</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="35">
         <v>42451</v>
       </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="38" t="s">
+      <c r="I24" s="38"/>
+      <c r="J24" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="40" t="s">
+      <c r="K24" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="L24" s="40"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="36"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="42"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="40"/>
       <c r="T24" s="10"/>
     </row>
     <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="35">
-        <v>24</v>
-      </c>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="43">
+        <v>16</v>
+      </c>
+      <c r="B25" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="35">
         <v>42451</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="35">
         <v>42451</v>
       </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="38" t="s">
+      <c r="I25" s="38"/>
+      <c r="J25" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="36"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="42"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="40"/>
       <c r="T25" s="10"/>
     </row>
     <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="35">
-        <v>25</v>
-      </c>
-      <c r="B26" s="39" t="s">
+      <c r="A26" s="43">
+        <v>17</v>
+      </c>
+      <c r="B26" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="35">
         <v>42451</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="35">
         <v>42451</v>
       </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="38" t="s">
+      <c r="I26" s="38"/>
+      <c r="J26" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="K26" s="40" t="s">
+      <c r="K26" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="40"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="36"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="42"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="40"/>
       <c r="T26" s="10"/>
     </row>
     <row r="27" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="35">
-        <v>26</v>
-      </c>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="43">
+        <v>18</v>
+      </c>
+      <c r="B27" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="35">
         <v>42451</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="35">
         <v>42451</v>
       </c>
-      <c r="I27" s="40"/>
-      <c r="J27" s="38" t="s">
+      <c r="I27" s="38"/>
+      <c r="J27" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="40" t="s">
+      <c r="K27" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="40"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="36"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="42"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="40"/>
       <c r="T27" s="10"/>
     </row>
     <row r="28" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A28" s="35">
-        <v>27</v>
-      </c>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="43">
+        <v>19</v>
+      </c>
+      <c r="B28" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="35">
         <v>42451</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="35">
         <v>42451</v>
       </c>
-      <c r="I28" s="40"/>
-      <c r="J28" s="38" t="s">
+      <c r="I28" s="38"/>
+      <c r="J28" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="40" t="s">
+      <c r="K28" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="L28" s="40"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="36"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="42"/>
+      <c r="S28" s="40"/>
       <c r="T28" s="10"/>
     </row>
     <row r="29" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A29" s="35">
+      <c r="A29" s="43">
+        <v>20</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="40" t="s">
+      <c r="F29" s="35">
+        <v>42451</v>
+      </c>
+      <c r="G29" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="37">
+      <c r="H29" s="35">
         <v>42451</v>
       </c>
-      <c r="G29" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="37">
-        <v>42451</v>
-      </c>
-      <c r="I29" s="40"/>
-      <c r="J29" s="38" t="s">
+      <c r="I29" s="38"/>
+      <c r="J29" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K29" s="40" t="s">
+      <c r="K29" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="40"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="36"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="42"/>
+      <c r="S29" s="40"/>
       <c r="T29" s="10"/>
     </row>
     <row r="30" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="35">
+      <c r="A30" s="33">
+        <v>1</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="31">
+        <v>42447</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="31">
+        <v>42447</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="N30" s="31">
+        <v>42450</v>
+      </c>
+      <c r="O30" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="33">
+        <v>2</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="31">
+        <v>42447</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="31">
+        <v>42447</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M31" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="N31" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O31" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="33">
+        <v>3</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="31">
+        <v>42447</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="31">
+        <v>42447</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="N32" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O32" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="33">
+        <v>4</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="31">
+        <v>42450</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="31">
+        <v>42450</v>
+      </c>
+      <c r="I33" s="30"/>
+      <c r="J33" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="N33" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O33" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="33">
+        <v>5</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="31">
+        <v>42447</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="31">
+        <v>42447</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="M34" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="N34" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O34" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="33">
+        <v>6</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="31">
+        <v>42447</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="31">
+        <v>42447</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="N35" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O35" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A36" s="33">
+        <v>7</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="31">
+        <v>42447</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="31">
+        <v>42447</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="30"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="33">
+        <v>8</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="31">
+        <v>42450</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="31">
+        <v>42450</v>
+      </c>
+      <c r="I37" s="30"/>
+      <c r="J37" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="L37" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="M37" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="N37" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O37" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="33">
+        <v>9</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="31">
+        <v>42450</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="31">
+        <v>42450</v>
+      </c>
+      <c r="I38" s="30"/>
+      <c r="J38" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="L38" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="M38" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="N38" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O38" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="10"/>
+    </row>
+    <row r="39" spans="1:20" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="44">
+        <v>1</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="47">
+        <v>42447</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="47">
+        <v>42447</v>
+      </c>
+      <c r="I39" s="46"/>
+      <c r="J39" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="K39" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="L39" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="M39" s="48"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="52"/>
+    </row>
+    <row r="40" spans="1:20" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="44">
+        <v>2</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="47">
+        <v>42447</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="47">
+        <v>42447</v>
+      </c>
+      <c r="I40" s="46"/>
+      <c r="J40" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="K40" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="L40" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="M40" s="48"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="T40" s="52"/>
+    </row>
+    <row r="41" spans="1:20" s="53" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="44">
+        <v>3</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="47">
+        <v>42447</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="47">
+        <v>42447</v>
+      </c>
+      <c r="I41" s="46"/>
+      <c r="J41" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="K41" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="L41" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="M41" s="48"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="52"/>
+    </row>
+    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="33">
+        <v>1</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="33">
+      <c r="D42" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="31">
         <v>42447</v>
       </c>
-      <c r="G30" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="33">
+      <c r="G42" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="31">
         <v>42447</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="L30" s="32"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="10"/>
-    </row>
-    <row r="31" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="35">
-        <v>30</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="33">
+      <c r="I42" s="30"/>
+      <c r="J42" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="L42" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="M42" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N42" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O42" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="10"/>
+    </row>
+    <row r="43" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="33">
+        <v>2</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="31">
         <v>42447</v>
       </c>
-      <c r="G31" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="33">
+      <c r="G43" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="31">
         <v>42447</v>
       </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="L31" s="32"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="10"/>
-    </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="35">
+      <c r="I43" s="30"/>
+      <c r="J43" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L43" s="30"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="T43" s="10"/>
+    </row>
+    <row r="44" spans="1:20" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="33">
+        <v>3</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="31">
+        <v>42447</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="31">
+        <v>42447</v>
+      </c>
+      <c r="I44" s="30"/>
+      <c r="J44" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L44" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="M44" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N44" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O44" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="33">
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="10"/>
+    </row>
+    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="33">
+        <v>4</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F45" s="31">
         <v>42447</v>
       </c>
-      <c r="G32" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="33">
+      <c r="G45" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H45" s="31">
         <v>42447</v>
       </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="34" t="s">
+      <c r="I45" s="30"/>
+      <c r="J45" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K45" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="K32" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="L32" s="32"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="10"/>
-    </row>
-    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="35">
-        <v>32</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="33">
-        <v>42450</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="33">
-        <v>42450</v>
-      </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K33" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="L33" s="32"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="10"/>
-    </row>
-    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="35">
-        <v>33</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="33">
-        <v>42447</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="33">
-        <v>42447</v>
-      </c>
-      <c r="I34" s="32"/>
-      <c r="J34" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="L34" s="32"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="10"/>
-    </row>
-    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="33">
-        <v>42447</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="33">
-        <v>42447</v>
-      </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="K35" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="L35" s="32"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="10"/>
-    </row>
-    <row r="36" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A36" s="35">
-        <v>35</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="33">
-        <v>42447</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="33">
-        <v>42447</v>
-      </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="K36" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="L36" s="32"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="10"/>
-    </row>
-    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="35">
-        <v>36</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="33">
-        <v>42450</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="33">
-        <v>42450</v>
-      </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="L37" s="32"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="10"/>
-    </row>
-    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="35">
-        <v>37</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="33">
-        <v>42447</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="33">
-        <v>42447</v>
-      </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="K38" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="L38" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="M38" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="N38" s="33">
+      <c r="L45" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="M45" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="N45" s="31">
         <v>42451</v>
       </c>
-      <c r="O38" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="10"/>
-    </row>
-    <row r="39" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="35">
-        <v>38</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="33">
-        <v>42447</v>
-      </c>
-      <c r="G39" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="33">
-        <v>42447</v>
-      </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="K39" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="L39" s="32"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="T39" s="10"/>
-    </row>
-    <row r="40" spans="1:20" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="35">
-        <v>39</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="33">
-        <v>42447</v>
-      </c>
-      <c r="G40" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="33">
-        <v>42447</v>
-      </c>
-      <c r="I40" s="32"/>
-      <c r="J40" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="K40" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="L40" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="M40" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="N40" s="33">
-        <v>42451</v>
-      </c>
-      <c r="O40" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="10"/>
-    </row>
-    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="35">
-        <v>40</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="33">
-        <v>42447</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="H41" s="33">
-        <v>42447</v>
-      </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="K41" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="L41" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="M41" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="N41" s="33">
-        <v>42451</v>
-      </c>
-      <c r="O41" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="10"/>
-    </row>
-    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="21"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="10"/>
-    </row>
-    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="21"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="10"/>
-    </row>
-    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="21"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="10"/>
-    </row>
-    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="21"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="17"/>
+      <c r="O45" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="16"/>
       <c r="T45" s="10"/>
     </row>
     <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="21"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="9"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="16"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="15"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="13"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="17"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="15"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="17"/>
+      <c r="S46" s="15"/>
       <c r="T46" s="10"/>
     </row>
     <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="21"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
       <c r="D47" s="12"/>
@@ -3273,7 +3593,7 @@
       <c r="T47" s="10"/>
     </row>
     <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="21"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
       <c r="D48" s="12"/>
@@ -3295,7 +3615,7 @@
       <c r="T48" s="10"/>
     </row>
     <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="21"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
       <c r="D49" s="12"/>
@@ -3317,7 +3637,7 @@
       <c r="T49" s="10"/>
     </row>
     <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="21"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
       <c r="D50" s="12"/>
@@ -3339,7 +3659,7 @@
       <c r="T50" s="10"/>
     </row>
     <row r="51" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="21"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
       <c r="D51" s="12"/>
@@ -3361,7 +3681,7 @@
       <c r="T51" s="10"/>
     </row>
     <row r="52" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="21"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
       <c r="D52" s="12"/>
@@ -3383,7 +3703,7 @@
       <c r="T52" s="10"/>
     </row>
     <row r="53" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="21"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
       <c r="D53" s="12"/>
@@ -3405,7 +3725,7 @@
       <c r="T53" s="10"/>
     </row>
     <row r="54" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="21"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
       <c r="D54" s="12"/>
@@ -3427,7 +3747,7 @@
       <c r="T54" s="10"/>
     </row>
     <row r="55" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="21"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
       <c r="D55" s="12"/>
@@ -3449,7 +3769,7 @@
       <c r="T55" s="10"/>
     </row>
     <row r="56" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="21"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
       <c r="D56" s="12"/>
@@ -3471,7 +3791,7 @@
       <c r="T56" s="10"/>
     </row>
     <row r="57" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="21"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
       <c r="D57" s="12"/>
@@ -3493,7 +3813,7 @@
       <c r="T57" s="10"/>
     </row>
     <row r="58" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="21"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
       <c r="D58" s="12"/>
@@ -3515,7 +3835,7 @@
       <c r="T58" s="10"/>
     </row>
     <row r="59" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="21"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
       <c r="D59" s="12"/>
@@ -6496,210 +6816,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_汇总.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_汇总.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="209">
   <si>
     <t>No</t>
   </si>
@@ -285,31 +285,280 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>雷传盛对底层进行了优化，目前压测测不出效果，需要前端同时优化，下个版本完善</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图缩放时未上线城市显示蘑菇图标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金宝统计报表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东审核签约单，不同意拒绝时，关闭账单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC&amp;App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC端业主详情菜单错位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App分散式房间面积不能编辑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】房型上架功能，界面UI重影</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS关于集中式房源相关小区文案改大楼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>New Features</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP退房时，输入支付密码错误，无相关提示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东在录入集中式房源点击保存，系统没有反应，房东会再次点击保存后就会出现重复的房源。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送一次性账单的时候没有提交按钮（有些电脑）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS端前台不打日志</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚林</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行提现</t>
+  </si>
+  <si>
+    <t>房东app/租客app</t>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+  </si>
+  <si>
+    <t>架构组</t>
+  </si>
+  <si>
+    <t>纪维玉/周蓉</t>
+  </si>
+  <si>
+    <t>统一用户写并行</t>
+  </si>
+  <si>
+    <t>所有</t>
+  </si>
+  <si>
+    <t>田志敏</t>
+  </si>
+  <si>
+    <t>余星赞/周蓉</t>
   </si>
   <si>
     <t>雷传盛对底层进行了优化，目前压测测不出效果，需要前端同时优化，下个版本完善</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图缩放时未上线城市显示蘑菇图标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>周蓉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租金宝统计报表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱文博</t>
+  </si>
+  <si>
+    <t>蘑菇宝常规款账单生成时、toAcctId为10000.</t>
+  </si>
+  <si>
+    <t>fix bug</t>
+  </si>
+  <si>
+    <t>房东</t>
+  </si>
+  <si>
+    <t>蒙先铭</t>
+  </si>
+  <si>
+    <t>纪维玉</t>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图找房速度的优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新官网/租客APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷传盛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -317,6 +566,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>房东App</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -325,11 +578,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>崔斌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -345,320 +598,191 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>房东审核签约单，不同意拒绝时，关闭账单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Fix Bug</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC登录在线验证功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS补录租约合同关闭下载</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC端密码输入错误和密码被锁定都会提登录错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同预览，乙方联系地址为空时，默认为签约房间地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>房东PC&amp;App</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约单保存后，若没有跳转回列表，提示弹窗将自动消失，不会导致页面卡死</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东发起签约蘑菇宝入住时间不能大于当前时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东提现超过5万提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加业主 报错</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>茅寰寰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>施超</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC登录在线验证功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC端业主详情菜单错位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>田东兴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>施超</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS补录租约合同关闭下载</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>茅寰寰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC端密码输入错误和密码被锁定都会提登录错误</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙周麟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同预览，乙方联系地址为空时，默认为签约房间地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC&amp;App</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约单保存后，若没有跳转回列表，提示弹窗将自动消失，不会导致页面卡死</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>余星赞</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东App分散式房间面积不能编辑</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>余星赞</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东PC】房型上架功能，界面UI重影</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>李傲</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS关于集中式房源相关小区文案改大楼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>余星赞</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP退房时，输入支付密码错误，无相关提示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵明基</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东在录入集中式房源点击保存，系统没有反应，房东会再次点击保存后就会出现重复的房源。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋文</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送一次性账单的时候没有提交按钮（有些电脑）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS端前台不打日志</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>李亚林</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>招行提现</t>
-  </si>
-  <si>
-    <t>房东app/租客app</t>
-  </si>
-  <si>
-    <t>冯银鹏</t>
-  </si>
-  <si>
-    <t>架构组</t>
-  </si>
-  <si>
-    <t>纪维玉/周蓉</t>
-  </si>
-  <si>
-    <t>统一用户写并行</t>
-  </si>
-  <si>
-    <t>所有</t>
-  </si>
-  <si>
-    <t>田志敏</t>
-  </si>
-  <si>
-    <t>余星赞/周蓉</t>
-  </si>
-  <si>
-    <t>雷传盛对底层进行了优化，目前压测测不出效果，需要前端同时优化，下个版本完善</t>
-  </si>
-  <si>
-    <t>蘑菇宝常规款账单生成时、toAcctId为10000.</t>
-  </si>
-  <si>
-    <t>fix bug</t>
-  </si>
-  <si>
-    <t>房东</t>
-  </si>
-  <si>
-    <t>蒙先铭</t>
-  </si>
-  <si>
-    <t>纪维玉</t>
-  </si>
-  <si>
-    <t>闪电组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图找房速度的优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新官网/租客APP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷传盛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李傲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1446,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T217"/>
+  <dimension ref="A1:T220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1539,35 +1663,35 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="F2" s="31">
         <v>42450</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="H2" s="31">
         <v>42450</v>
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="32" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="M2" s="32"/>
       <c r="N2" s="31"/>
@@ -1575,7 +1699,7 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
       <c r="R2" s="28" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="S2" s="16"/>
       <c r="T2" s="10"/>
@@ -1585,16 +1709,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="F3" s="31">
         <v>42450</v>
@@ -1607,21 +1731,27 @@
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="32" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
+        <v>165</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="N3" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>167</v>
+      </c>
       <c r="P3" s="36"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="34" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="S3" s="16"/>
       <c r="T3" s="10"/>
@@ -1631,16 +1761,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="F4" s="31">
         <v>42450</v>
@@ -1653,27 +1783,27 @@
       </c>
       <c r="I4" s="30"/>
       <c r="J4" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>100</v>
-      </c>
       <c r="M4" s="32" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="N4" s="31">
         <v>42451</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="34" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="10"/>
@@ -1683,16 +1813,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="F5" s="31">
         <v>42450</v>
@@ -1705,13 +1835,13 @@
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="32" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="M5" s="32" t="s">
         <v>30</v>
@@ -1720,12 +1850,12 @@
         <v>42451</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="34" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="S5" s="16"/>
       <c r="T5" s="10"/>
@@ -1735,16 +1865,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F6" s="31">
         <v>42450</v>
@@ -1757,27 +1887,27 @@
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="32" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="N6" s="31">
         <v>42451</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="34" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="S6" s="16"/>
       <c r="T6" s="10"/>
@@ -1787,16 +1917,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="F7" s="31">
         <v>42450</v>
@@ -1809,27 +1939,27 @@
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="32" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="N7" s="31">
         <v>42451</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="34" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="S7" s="16"/>
       <c r="T7" s="10"/>
@@ -1839,16 +1969,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="F8" s="31">
         <v>42450</v>
@@ -1861,13 +1991,13 @@
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="32" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="M8" s="32" t="s">
         <v>30</v>
@@ -1876,12 +2006,12 @@
         <v>42451</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="34" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="S8" s="16"/>
       <c r="T8" s="10"/>
@@ -1891,16 +2021,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="F9" s="31">
         <v>42450</v>
@@ -1913,13 +2043,13 @@
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="32" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="M9" s="32" t="s">
         <v>30</v>
@@ -1928,154 +2058,184 @@
         <v>42451</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="34" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="S9" s="16"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="43">
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="33">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="31">
+        <v>42450</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="31">
+        <v>42450</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="N10" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="31">
+        <v>42450</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="31">
+        <v>42450</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="S11" s="16"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="33">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="31">
+        <v>42450</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="31">
+        <v>42450</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A13" s="43">
         <v>1</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C13" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D13" s="38" t="s">
         <v>34</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="35">
-        <v>42451</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="35">
-        <v>42451</v>
-      </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="10"/>
-    </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="43">
-        <v>2</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="35">
-        <v>42451</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="35">
-        <v>42451</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="43">
-        <v>3</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="35">
-        <v>42451</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="35">
-        <v>42451</v>
-      </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="43">
-        <v>4</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>39</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>28</v>
@@ -2091,7 +2251,7 @@
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K13" s="38" t="s">
         <v>36</v>
@@ -2106,12 +2266,12 @@
       <c r="S13" s="40"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>38</v>
@@ -2133,7 +2293,7 @@
       </c>
       <c r="I14" s="38"/>
       <c r="J14" s="36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K14" s="38" t="s">
         <v>36</v>
@@ -2148,18 +2308,18 @@
       <c r="S14" s="40"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>28</v>
@@ -2175,7 +2335,7 @@
       </c>
       <c r="I15" s="38"/>
       <c r="J15" s="36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K15" s="38" t="s">
         <v>36</v>
@@ -2190,18 +2350,18 @@
       <c r="S15" s="40"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="43">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>28</v>
@@ -2217,7 +2377,7 @@
       </c>
       <c r="I16" s="38"/>
       <c r="J16" s="36" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K16" s="38" t="s">
         <v>36</v>
@@ -2232,18 +2392,18 @@
       <c r="S16" s="40"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>28</v>
@@ -2259,7 +2419,7 @@
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="36" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K17" s="38" t="s">
         <v>36</v>
@@ -2274,15 +2434,15 @@
       <c r="S17" s="40"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="43">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>34</v>
@@ -2301,7 +2461,7 @@
       </c>
       <c r="I18" s="38"/>
       <c r="J18" s="36" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K18" s="38" t="s">
         <v>36</v>
@@ -2316,15 +2476,15 @@
       <c r="S18" s="40"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="43">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>34</v>
@@ -2343,7 +2503,7 @@
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="36" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K19" s="38" t="s">
         <v>36</v>
@@ -2355,15 +2515,15 @@
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
       <c r="R19" s="29"/>
-      <c r="S19" s="41"/>
+      <c r="S19" s="40"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="43">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>33</v>
@@ -2385,7 +2545,7 @@
       </c>
       <c r="I20" s="38"/>
       <c r="J20" s="36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20" s="38" t="s">
         <v>36</v>
@@ -2394,21 +2554,21 @@
       <c r="M20" s="36"/>
       <c r="N20" s="35"/>
       <c r="O20" s="36"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
       <c r="R20" s="29"/>
       <c r="S20" s="40"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="43">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>34</v>
@@ -2427,7 +2587,7 @@
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="36" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K21" s="38" t="s">
         <v>36</v>
@@ -2436,18 +2596,18 @@
       <c r="M21" s="36"/>
       <c r="N21" s="35"/>
       <c r="O21" s="36"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
       <c r="R21" s="29"/>
       <c r="S21" s="40"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A22" s="43">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>33</v>
@@ -2469,7 +2629,7 @@
       </c>
       <c r="I22" s="38"/>
       <c r="J22" s="36" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K22" s="38" t="s">
         <v>36</v>
@@ -2478,18 +2638,18 @@
       <c r="M22" s="36"/>
       <c r="N22" s="35"/>
       <c r="O22" s="36"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
       <c r="R22" s="29"/>
-      <c r="S22" s="40"/>
+      <c r="S22" s="41"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="43">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>33</v>
@@ -2511,7 +2671,7 @@
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="36" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K23" s="38" t="s">
         <v>36</v>
@@ -2526,12 +2686,12 @@
       <c r="S23" s="40"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="43">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>33</v>
@@ -2568,12 +2728,12 @@
       <c r="S24" s="40"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A25" s="43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C25" s="38" t="s">
         <v>33</v>
@@ -2595,7 +2755,7 @@
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K25" s="38" t="s">
         <v>36</v>
@@ -2610,18 +2770,18 @@
       <c r="S25" s="40"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A26" s="43">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E26" s="38" t="s">
         <v>28</v>
@@ -2637,7 +2797,7 @@
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="36" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K26" s="38" t="s">
         <v>36</v>
@@ -2652,18 +2812,18 @@
       <c r="S26" s="40"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A27" s="43">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E27" s="38" t="s">
         <v>28</v>
@@ -2679,7 +2839,7 @@
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K27" s="38" t="s">
         <v>36</v>
@@ -2694,18 +2854,18 @@
       <c r="S27" s="40"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="43">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E28" s="38" t="s">
         <v>28</v>
@@ -2721,7 +2881,7 @@
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K28" s="38" t="s">
         <v>36</v>
@@ -2732,22 +2892,22 @@
       <c r="O28" s="36"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
+      <c r="R28" s="29"/>
       <c r="S28" s="40"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="43">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E29" s="38" t="s">
         <v>28</v>
@@ -2763,7 +2923,7 @@
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="36" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="K29" s="38" t="s">
         <v>36</v>
@@ -2774,203 +2934,179 @@
       <c r="O29" s="36"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
+      <c r="R29" s="29"/>
       <c r="S29" s="40"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="33">
-        <v>1</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="30" t="s">
+    <row r="30" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="43">
+        <v>18</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="35">
+        <v>42451</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="35">
+        <v>42451</v>
+      </c>
+      <c r="I30" s="38"/>
+      <c r="J30" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="38"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A31" s="43">
+        <v>19</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="30" t="s">
+      <c r="D31" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="31">
-        <v>42447</v>
-      </c>
-      <c r="G30" s="31" t="s">
+      <c r="F31" s="35">
+        <v>42451</v>
+      </c>
+      <c r="G31" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="31">
-        <v>42447</v>
-      </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="K30" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="L30" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="M30" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="N30" s="31">
-        <v>42450</v>
-      </c>
-      <c r="O30" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="10"/>
-    </row>
-    <row r="31" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="33">
-        <v>2</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="30" t="s">
+      <c r="H31" s="35">
+        <v>42451</v>
+      </c>
+      <c r="I31" s="38"/>
+      <c r="J31" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="38"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A32" s="43">
+        <v>20</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="31">
-        <v>42447</v>
-      </c>
-      <c r="G31" s="31" t="s">
+      <c r="F32" s="35">
+        <v>42451</v>
+      </c>
+      <c r="G32" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="31">
-        <v>42447</v>
-      </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="L31" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="M31" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="N31" s="31">
+      <c r="H32" s="35">
         <v>42451</v>
       </c>
-      <c r="O31" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="10"/>
-    </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="33">
-        <v>3</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="31">
-        <v>42447</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="31">
-        <v>42447</v>
-      </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="K32" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="L32" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="M32" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="N32" s="31">
-        <v>42451</v>
-      </c>
-      <c r="O32" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="16"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="38"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="40"/>
       <c r="T32" s="10"/>
     </row>
     <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>28</v>
       </c>
       <c r="F33" s="31">
-        <v>42450</v>
+        <v>42447</v>
       </c>
       <c r="G33" s="31" t="s">
         <v>28</v>
       </c>
       <c r="H33" s="31">
-        <v>42450</v>
+        <v>42447</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="32" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="K33" s="30" t="s">
         <v>69</v>
       </c>
       <c r="L33" s="30" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="M33" s="32" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="N33" s="31">
-        <v>42451</v>
+        <v>42450</v>
       </c>
       <c r="O33" s="32" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="P33" s="20"/>
       <c r="Q33" s="20"/>
@@ -2980,16 +3116,16 @@
     </row>
     <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="E34" s="30" t="s">
         <v>28</v>
@@ -3005,22 +3141,22 @@
       </c>
       <c r="I34" s="30"/>
       <c r="J34" s="32" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="K34" s="30" t="s">
         <v>69</v>
       </c>
       <c r="L34" s="30" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="M34" s="32" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="N34" s="31">
         <v>42451</v>
       </c>
       <c r="O34" s="32" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
@@ -3030,16 +3166,16 @@
     </row>
     <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E35" s="30" t="s">
         <v>28</v>
@@ -3055,22 +3191,22 @@
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="32" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="K35" s="30" t="s">
         <v>69</v>
       </c>
       <c r="L35" s="30" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="N35" s="31">
         <v>42451</v>
       </c>
       <c r="O35" s="32" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
@@ -3078,42 +3214,50 @@
       <c r="S35" s="16"/>
       <c r="T35" s="10"/>
     </row>
-    <row r="36" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="33">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>28</v>
       </c>
       <c r="F36" s="31">
-        <v>42447</v>
+        <v>42450</v>
       </c>
       <c r="G36" s="31" t="s">
         <v>28</v>
       </c>
       <c r="H36" s="31">
-        <v>42447</v>
+        <v>42450</v>
       </c>
       <c r="I36" s="30"/>
       <c r="J36" s="32" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="K36" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="30"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="32"/>
+      <c r="L36" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="M36" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="N36" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O36" s="32" t="s">
+        <v>110</v>
+      </c>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -3122,47 +3266,47 @@
     </row>
     <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="31">
-        <v>42450</v>
+        <v>42447</v>
       </c>
       <c r="G37" s="31" t="s">
         <v>28</v>
       </c>
       <c r="H37" s="31">
-        <v>42450</v>
+        <v>42447</v>
       </c>
       <c r="I37" s="30"/>
       <c r="J37" s="32" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="K37" s="30" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="L37" s="30" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="N37" s="31">
         <v>42451</v>
       </c>
       <c r="O37" s="32" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
@@ -3172,47 +3316,47 @@
     </row>
     <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="33">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>28</v>
       </c>
       <c r="F38" s="31">
-        <v>42450</v>
+        <v>42447</v>
       </c>
       <c r="G38" s="31" t="s">
         <v>28</v>
       </c>
       <c r="H38" s="31">
-        <v>42450</v>
+        <v>42447</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="32" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="K38" s="30" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="L38" s="30" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="M38" s="32" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="N38" s="31">
         <v>42451</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="P38" s="20"/>
       <c r="Q38" s="20"/>
@@ -3220,327 +3364,325 @@
       <c r="S38" s="16"/>
       <c r="T38" s="10"/>
     </row>
-    <row r="39" spans="1:20" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="44">
+    <row r="39" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A39" s="33">
+        <v>7</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="31">
+        <v>42447</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="31">
+        <v>42447</v>
+      </c>
+      <c r="I39" s="30"/>
+      <c r="J39" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="K39" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="30"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="33">
+        <v>8</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="31">
+        <v>42450</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="31">
+        <v>42450</v>
+      </c>
+      <c r="I40" s="30"/>
+      <c r="J40" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="M40" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="N40" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O40" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="10"/>
+    </row>
+    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="33">
+        <v>9</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="31">
+        <v>42450</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="31">
+        <v>42450</v>
+      </c>
+      <c r="I41" s="30"/>
+      <c r="J41" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="K41" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="L41" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="M41" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="N41" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O41" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" spans="1:20" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="44">
         <v>1</v>
       </c>
-      <c r="B39" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" s="46" t="s">
+      <c r="B42" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="E39" s="46" t="s">
+      <c r="D42" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="47">
+      <c r="F42" s="47">
         <v>42447</v>
       </c>
-      <c r="G39" s="47" t="s">
+      <c r="G42" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="47">
+      <c r="H42" s="47">
         <v>42447</v>
       </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="K39" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="L39" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="M39" s="48"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="52"/>
-    </row>
-    <row r="40" spans="1:20" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="44">
+      <c r="I42" s="46"/>
+      <c r="J42" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="K42" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="L42" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M42" s="48"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="52"/>
+    </row>
+    <row r="43" spans="1:20" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="44">
         <v>2</v>
       </c>
-      <c r="B40" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="46" t="s">
+      <c r="B43" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="E40" s="46" t="s">
+      <c r="D43" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F43" s="47">
         <v>42447</v>
       </c>
-      <c r="G40" s="47" t="s">
+      <c r="G43" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="47">
+      <c r="H43" s="47">
         <v>42447</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="K40" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="L40" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="M40" s="48"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="T40" s="52"/>
-    </row>
-    <row r="41" spans="1:20" s="53" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="44">
+      <c r="I43" s="46"/>
+      <c r="J43" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="K43" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="L43" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="M43" s="48"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="T43" s="52"/>
+    </row>
+    <row r="44" spans="1:20" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="44">
         <v>3</v>
       </c>
-      <c r="B41" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" s="46" t="s">
+      <c r="B44" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="47">
+      <c r="F44" s="47">
         <v>42447</v>
       </c>
-      <c r="G41" s="47" t="s">
+      <c r="G44" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="47">
+      <c r="H44" s="47">
         <v>42447</v>
       </c>
-      <c r="I41" s="46"/>
-      <c r="J41" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="K41" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="L41" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="M41" s="48"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="52"/>
-    </row>
-    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="33">
-        <v>1</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="31">
-        <v>42447</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="31">
-        <v>42447</v>
-      </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="K42" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="L42" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="M42" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="N42" s="31">
-        <v>42451</v>
-      </c>
-      <c r="O42" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="10"/>
-    </row>
-    <row r="43" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="33">
-        <v>2</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="F43" s="31">
-        <v>42447</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="31">
-        <v>42447</v>
-      </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="K43" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L43" s="30"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="T43" s="10"/>
-    </row>
-    <row r="44" spans="1:20" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="33">
-        <v>3</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="31">
-        <v>42447</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="31">
-        <v>42447</v>
-      </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="K44" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L44" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="M44" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="N44" s="31">
-        <v>42451</v>
-      </c>
-      <c r="O44" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="10"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="K44" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="L44" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="M44" s="48"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="51"/>
+      <c r="T44" s="52"/>
     </row>
     <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="F45" s="31">
         <v>42447</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="H45" s="31">
         <v>42447</v>
       </c>
       <c r="I45" s="30"/>
       <c r="J45" s="32" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K45" s="30" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="L45" s="32" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="M45" s="32" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="N45" s="31">
         <v>42451</v>
       </c>
       <c r="O45" s="32" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="P45" s="20"/>
       <c r="Q45" s="20"/>
@@ -3548,92 +3690,170 @@
       <c r="S45" s="16"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="19"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="15"/>
+    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="33">
+        <v>2</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="31">
+        <v>42447</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="31">
+        <v>42447</v>
+      </c>
+      <c r="I46" s="30"/>
+      <c r="J46" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="K46" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L46" s="30"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="19"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="4"/>
+    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="33">
+        <v>3</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="31">
+        <v>42447</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="31">
+        <v>42447</v>
+      </c>
+      <c r="I47" s="30"/>
+      <c r="J47" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="K47" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L47" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="M47" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N47" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O47" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="16"/>
       <c r="T47" s="10"/>
     </row>
-    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="19"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="4"/>
+    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="33">
+        <v>4</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="31">
+        <v>42447</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" s="31">
+        <v>42447</v>
+      </c>
+      <c r="I48" s="30"/>
+      <c r="J48" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="K48" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L48" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="M48" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="N48" s="31">
+        <v>42451</v>
+      </c>
+      <c r="O48" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="16"/>
       <c r="T48" s="10"/>
     </row>
     <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="7"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="4"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="15"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="4"/>
+      <c r="S49" s="15"/>
       <c r="T49" s="10"/>
     </row>
     <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -3857,7 +4077,7 @@
       <c r="T59" s="10"/>
     </row>
     <row r="60" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="9"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
       <c r="D60" s="12"/>
@@ -3879,7 +4099,7 @@
       <c r="T60" s="10"/>
     </row>
     <row r="61" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="9"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
       <c r="D61" s="12"/>
@@ -3900,8 +4120,8 @@
       <c r="S61" s="4"/>
       <c r="T61" s="10"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="7"/>
+    <row r="62" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="19"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
       <c r="D62" s="12"/>
@@ -3920,9 +4140,10 @@
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
-    </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="7"/>
+      <c r="T62" s="10"/>
+    </row>
+    <row r="63" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="9"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
       <c r="D63" s="12"/>
@@ -3941,9 +4162,10 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
-    </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="7"/>
+      <c r="T63" s="10"/>
+    </row>
+    <row r="64" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="9"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
       <c r="D64" s="12"/>
@@ -3962,6 +4184,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
+      <c r="T64" s="10"/>
     </row>
     <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
@@ -4745,7 +4968,7 @@
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
       <c r="D102" s="12"/>
-      <c r="E102" s="7"/>
+      <c r="E102" s="12"/>
       <c r="F102" s="5"/>
       <c r="G102" s="7"/>
       <c r="H102" s="5"/>
@@ -4766,7 +4989,7 @@
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
       <c r="D103" s="12"/>
-      <c r="E103" s="7"/>
+      <c r="E103" s="12"/>
       <c r="F103" s="5"/>
       <c r="G103" s="7"/>
       <c r="H103" s="5"/>
@@ -4787,7 +5010,7 @@
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
       <c r="D104" s="12"/>
-      <c r="E104" s="7"/>
+      <c r="E104" s="12"/>
       <c r="F104" s="5"/>
       <c r="G104" s="7"/>
       <c r="H104" s="5"/>
@@ -4866,11 +5089,11 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
+      <c r="D108" s="12"/>
       <c r="E108" s="7"/>
       <c r="F108" s="5"/>
       <c r="G108" s="7"/>
@@ -4887,11 +5110,11 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
+      <c r="D109" s="12"/>
       <c r="E109" s="7"/>
       <c r="F109" s="5"/>
       <c r="G109" s="7"/>
@@ -4908,11 +5131,11 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
+      <c r="D110" s="12"/>
       <c r="E110" s="7"/>
       <c r="F110" s="5"/>
       <c r="G110" s="7"/>
@@ -5892,6 +6115,7 @@
       <c r="O156" s="4"/>
       <c r="P156" s="7"/>
       <c r="Q156" s="7"/>
+      <c r="R156" s="7"/>
       <c r="S156" s="4"/>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.15">
@@ -5912,6 +6136,7 @@
       <c r="O157" s="4"/>
       <c r="P157" s="7"/>
       <c r="Q157" s="7"/>
+      <c r="R157" s="7"/>
       <c r="S157" s="4"/>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.15">
@@ -5932,6 +6157,7 @@
       <c r="O158" s="4"/>
       <c r="P158" s="7"/>
       <c r="Q158" s="7"/>
+      <c r="R158" s="7"/>
       <c r="S158" s="4"/>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.15">
@@ -6130,6 +6356,8 @@
       <c r="M168" s="7"/>
       <c r="N168" s="5"/>
       <c r="O168" s="4"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7"/>
       <c r="S168" s="4"/>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.15">
@@ -6148,6 +6376,8 @@
       <c r="M169" s="7"/>
       <c r="N169" s="5"/>
       <c r="O169" s="4"/>
+      <c r="P169" s="7"/>
+      <c r="Q169" s="7"/>
       <c r="S169" s="4"/>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.15">
@@ -6166,6 +6396,8 @@
       <c r="M170" s="7"/>
       <c r="N170" s="5"/>
       <c r="O170" s="4"/>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="7"/>
       <c r="S170" s="4"/>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.15">
@@ -6746,12 +6978,57 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A203" s="7"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="7"/>
+      <c r="K203" s="7"/>
+      <c r="L203" s="7"/>
+      <c r="M203" s="7"/>
+      <c r="N203" s="5"/>
+      <c r="O203" s="4"/>
+      <c r="S203" s="4"/>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A204" s="7"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="7"/>
+      <c r="K204" s="7"/>
+      <c r="L204" s="7"/>
+      <c r="M204" s="7"/>
+      <c r="N204" s="5"/>
+      <c r="O204" s="4"/>
+      <c r="S204" s="4"/>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="7"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="7"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="7"/>
+      <c r="K205" s="7"/>
+      <c r="L205" s="7"/>
+      <c r="M205" s="7"/>
+      <c r="N205" s="5"/>
+      <c r="O205" s="4"/>
+      <c r="S205" s="4"/>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="7"/>
@@ -6788,6 +7065,15 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="7"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" s="7"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219" s="7"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
